--- a/00前期准备/美工人员分工.xlsx
+++ b/00前期准备/美工人员分工.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB30D65-EB11-4A60-9855-47313D00B213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E7CE4-ADA1-4A76-9E75-4E9D06E21510}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1260" windowWidth="21600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1260" windowWidth="21600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,14 +126,6 @@
   </si>
   <si>
     <t>监理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来栋梁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,6 +255,14 @@
   <si>
     <t>马桶</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>史超靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马乐艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,10 +679,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,39 +737,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
       <pane xSplit="15" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,20 +1680,20 @@
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I1" s="46"/>
       <c r="J1" s="43" t="s">
@@ -1707,99 +1707,99 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
+      <c r="Q1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
     </row>
     <row r="2" spans="1:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>21</v>
@@ -1814,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X2" s="22" t="s">
         <v>19</v>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1943,10 +1943,10 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="42"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2080,16 +2080,16 @@
     <row r="4" spans="1:58" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="32">
         <v>43903</v>
@@ -2146,16 +2146,16 @@
     <row r="5" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="32">
         <v>43916</v>
@@ -2211,16 +2211,16 @@
     <row r="6" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="32">
         <v>43919</v>
@@ -2276,16 +2276,16 @@
     <row r="7" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="32">
         <v>43910</v>
@@ -2339,16 +2339,16 @@
     <row r="8" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="32">
         <v>43922</v>
@@ -2401,17 +2401,17 @@
     </row>
     <row r="9" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="32">
         <v>43903</v>
@@ -2464,17 +2464,17 @@
     </row>
     <row r="10" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="32">
         <v>43910</v>
@@ -2527,17 +2527,17 @@
     </row>
     <row r="11" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="32">
         <v>43910</v>
@@ -2589,17 +2589,17 @@
     </row>
     <row r="12" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="32">
         <v>43917</v>
@@ -2651,17 +2651,17 @@
     </row>
     <row r="13" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="32">
         <v>43917</v>
@@ -2713,17 +2713,17 @@
     </row>
     <row r="14" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F14" s="32">
         <v>43924</v>
@@ -2776,17 +2776,17 @@
     </row>
     <row r="15" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="32">
         <v>43903</v>
@@ -2839,17 +2839,17 @@
     </row>
     <row r="16" spans="1:58" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="32">
         <v>43931</v>
@@ -2902,17 +2902,17 @@
     </row>
     <row r="17" spans="1:50" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="32">
         <v>43938</v>
@@ -2965,17 +2965,17 @@
     </row>
     <row r="18" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="53" t="s">
-        <v>44</v>
+      <c r="B18" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="32">
         <v>43903</v>
@@ -3028,17 +3028,17 @@
     </row>
     <row r="19" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="53" t="s">
-        <v>44</v>
+      <c r="B19" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F19" s="32">
         <v>43907</v>
@@ -3091,17 +3091,17 @@
     </row>
     <row r="20" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="53" t="s">
-        <v>44</v>
+      <c r="B20" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F20" s="32">
         <v>43911</v>
@@ -3154,17 +3154,17 @@
     </row>
     <row r="21" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="53" t="s">
-        <v>44</v>
+      <c r="B21" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>56</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F21" s="32">
         <v>43915</v>
@@ -3217,17 +3217,17 @@
     </row>
     <row r="22" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="53" t="s">
-        <v>44</v>
+      <c r="B22" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F22" s="32">
         <v>43919</v>
@@ -3279,17 +3279,17 @@
     </row>
     <row r="23" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="53" t="s">
-        <v>44</v>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="32">
         <v>43923</v>
@@ -3342,17 +3342,17 @@
     </row>
     <row r="24" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="53" t="s">
-        <v>44</v>
+      <c r="B24" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F24" s="32">
         <v>43927</v>
@@ -3405,17 +3405,17 @@
     </row>
     <row r="25" spans="1:50" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="53" t="s">
-        <v>44</v>
+      <c r="B25" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="32">
         <v>43931</v>
@@ -5764,7 +5764,7 @@
     <row r="66" spans="1:59" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -10030,6 +10030,14 @@
   </sheetData>
   <autoFilter ref="A3:BG51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="18">
+    <mergeCell ref="Q1:AF1"/>
+    <mergeCell ref="AG1:BF1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
@@ -10038,16 +10046,8 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="Q1:AF1"/>
-    <mergeCell ref="AG1:BF1"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="K5:O5 H5 H4:O4 A4:A6 I40:J47 I52:O75 I49:O50 I6:O36">
